--- a/NuBank.xlsx
+++ b/NuBank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/guilhermer4_al_insper_edu_br/Documents/Engenharia/2 Semestre/Ciência dos Dados/Projeto 1 (compartilhado)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17F4E9-F656-43EF-BF3F-DE0567E00A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BD17F4E9-F656-43EF-BF3F-DE0567E00A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A9CB2F3F-345E-4782-93C3-5813098B8E9D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="752">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1575,9 +1575,6 @@
   <si>
     <t xml:space="preserve"> @nubank olha esta que vc citou me atende bem.
 mas o nu foi assim: prometeu uma coisa, não cumpriu e não votlou atrás. empresa que mente para mim só tem uma chance de fazer isso.</t>
-  </si>
-  <si>
-    <t>Relevância</t>
   </si>
   <si>
     <t>Relevancia</t>
@@ -2641,7 +2638,7 @@
   <autoFilter ref="A1:B203" xr:uid="{4963BCC1-6AE3-4E0C-BDCA-C9D67AA6BC28}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{07F26147-5C6F-45F5-80CE-4F149ABAB9BE}" name="Teste" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{24418E72-5B7C-49A2-84E6-B8C7A6470AD7}" name="Relevância" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{24418E72-5B7C-49A2-84E6-B8C7A6470AD7}" name="Relevancia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2970,7 +2967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F551"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView zoomScale="116" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2986,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5394,7 +5391,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B302" s="2">
         <v>0</v>
@@ -5402,7 +5399,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B303" s="2">
         <v>1</v>
@@ -5410,7 +5407,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B304" s="2">
         <v>1</v>
@@ -5418,7 +5415,7 @@
     </row>
     <row r="305" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B305" s="2">
         <v>1</v>
@@ -5426,7 +5423,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B306" s="2">
         <v>0</v>
@@ -5434,7 +5431,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B307" s="2">
         <v>1</v>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B308" s="2">
         <v>0</v>
@@ -5450,7 +5447,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B309" s="2">
         <v>0</v>
@@ -5458,7 +5455,7 @@
     </row>
     <row r="310" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B310" s="2">
         <v>0</v>
@@ -5466,7 +5463,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B311" s="2">
         <v>0</v>
@@ -5474,7 +5471,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B312" s="2">
         <v>0</v>
@@ -5482,7 +5479,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B313" s="2">
         <v>1</v>
@@ -5490,7 +5487,7 @@
     </row>
     <row r="314" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B314" s="2">
         <v>0</v>
@@ -5498,7 +5495,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B315" s="2">
         <v>0</v>
@@ -5506,7 +5503,7 @@
     </row>
     <row r="316" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B316" s="2">
         <v>1</v>
@@ -5514,7 +5511,7 @@
     </row>
     <row r="317" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B317" s="2">
         <v>0</v>
@@ -5522,7 +5519,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B318" s="2">
         <v>0</v>
@@ -5530,7 +5527,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B319" s="2">
         <v>0</v>
@@ -5538,7 +5535,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B320" s="2">
         <v>0</v>
@@ -5546,7 +5543,7 @@
     </row>
     <row r="321" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B321" s="2">
         <v>1</v>
@@ -5554,7 +5551,7 @@
     </row>
     <row r="322" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B322" s="2">
         <v>0</v>
@@ -5562,7 +5559,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B323" s="2">
         <v>0</v>
@@ -5570,7 +5567,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B324" s="2">
         <v>0</v>
@@ -5578,7 +5575,7 @@
     </row>
     <row r="325" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B325" s="2">
         <v>0</v>
@@ -5586,7 +5583,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B326" s="2">
         <v>0</v>
@@ -5594,7 +5591,7 @@
     </row>
     <row r="327" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B327" s="2">
         <v>1</v>
@@ -5602,7 +5599,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B328" s="2">
         <v>0</v>
@@ -5610,7 +5607,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B329" s="2">
         <v>0</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B330" s="2">
         <v>1</v>
@@ -5626,7 +5623,7 @@
     </row>
     <row r="331" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B331" s="2">
         <v>0</v>
@@ -5634,7 +5631,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B332" s="2">
         <v>1</v>
@@ -5642,7 +5639,7 @@
     </row>
     <row r="333" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B333" s="2">
         <v>0</v>
@@ -5650,7 +5647,7 @@
     </row>
     <row r="334" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B334" s="2">
         <v>0</v>
@@ -5658,7 +5655,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B335" s="2">
         <v>0</v>
@@ -5666,7 +5663,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B336" s="2">
         <v>1</v>
@@ -5674,7 +5671,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B337" s="2">
         <v>0</v>
@@ -5682,7 +5679,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B338" s="2">
         <v>1</v>
@@ -5690,7 +5687,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B339" s="2">
         <v>1</v>
@@ -5698,7 +5695,7 @@
     </row>
     <row r="340" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B340" s="2">
         <v>1</v>
@@ -5706,7 +5703,7 @@
     </row>
     <row r="341" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B341" s="2">
         <v>0</v>
@@ -5714,7 +5711,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B342" s="2">
         <v>0</v>
@@ -5722,7 +5719,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B343" s="2">
         <v>0</v>
@@ -5730,7 +5727,7 @@
     </row>
     <row r="344" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B344" s="2">
         <v>0</v>
@@ -5738,7 +5735,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B345" s="2">
         <v>0</v>
@@ -5746,7 +5743,7 @@
     </row>
     <row r="346" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B346" s="2">
         <v>0</v>
@@ -5754,7 +5751,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B347" s="2">
         <v>1</v>
@@ -5762,7 +5759,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B348" s="2">
         <v>0</v>
@@ -5770,7 +5767,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B349" s="2">
         <v>0</v>
@@ -5778,7 +5775,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B350" s="2">
         <v>0</v>
@@ -5786,7 +5783,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B351" s="2">
         <v>1</v>
@@ -5794,7 +5791,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B352" s="2">
         <v>0</v>
@@ -5802,7 +5799,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B353" s="2">
         <v>0</v>
@@ -5810,7 +5807,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B354" s="2">
         <v>0</v>
@@ -5818,7 +5815,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B355" s="2">
         <v>0</v>
@@ -5826,7 +5823,7 @@
     </row>
     <row r="356" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B356" s="2">
         <v>0</v>
@@ -5834,7 +5831,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B357" s="2">
         <v>0</v>
@@ -5842,7 +5839,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B358" s="2">
         <v>1</v>
@@ -5850,7 +5847,7 @@
     </row>
     <row r="359" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B359" s="2">
         <v>0</v>
@@ -5858,7 +5855,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B360" s="2">
         <v>0</v>
@@ -5866,7 +5863,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B361" s="2">
         <v>0</v>
@@ -5874,7 +5871,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B362" s="2">
         <v>1</v>
@@ -5882,7 +5879,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B363" s="2">
         <v>1</v>
@@ -5890,7 +5887,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B364" s="2">
         <v>1</v>
@@ -5898,7 +5895,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B365" s="2">
         <v>1</v>
@@ -5906,7 +5903,7 @@
     </row>
     <row r="366" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B366" s="2">
         <v>0</v>
@@ -5914,7 +5911,7 @@
     </row>
     <row r="367" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B367" s="2">
         <v>1</v>
@@ -5922,7 +5919,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B368" s="2">
         <v>0</v>
@@ -5930,7 +5927,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B369" s="2">
         <v>0</v>
@@ -5938,7 +5935,7 @@
     </row>
     <row r="370" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B370" s="2">
         <v>0</v>
@@ -5946,7 +5943,7 @@
     </row>
     <row r="371" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B371" s="2">
         <v>0</v>
@@ -5954,7 +5951,7 @@
     </row>
     <row r="372" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B372" s="2">
         <v>0</v>
@@ -5962,7 +5959,7 @@
     </row>
     <row r="373" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B373" s="2">
         <v>1</v>
@@ -5970,7 +5967,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B374" s="2">
         <v>0</v>
@@ -5978,7 +5975,7 @@
     </row>
     <row r="375" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B375" s="2">
         <v>1</v>
@@ -5986,7 +5983,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B376" s="2">
         <v>0</v>
@@ -5994,7 +5991,7 @@
     </row>
     <row r="377" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B377" s="2">
         <v>0</v>
@@ -6002,7 +5999,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B378" s="2">
         <v>0</v>
@@ -6010,7 +6007,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B379" s="2">
         <v>1</v>
@@ -6018,7 +6015,7 @@
     </row>
     <row r="380" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B380" s="2">
         <v>1</v>
@@ -6026,7 +6023,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B381" s="2">
         <v>0</v>
@@ -6034,7 +6031,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B382" s="2">
         <v>1</v>
@@ -6042,7 +6039,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B383" s="2">
         <v>0</v>
@@ -6050,7 +6047,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B384" s="2">
         <v>0</v>
@@ -6058,7 +6055,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B385" s="2">
         <v>0</v>
@@ -6066,7 +6063,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B386" s="2">
         <v>0</v>
@@ -6074,7 +6071,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B387" s="2">
         <v>0</v>
@@ -6082,7 +6079,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B388" s="2">
         <v>0</v>
@@ -6090,7 +6087,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B389" s="2">
         <v>1</v>
@@ -6098,7 +6095,7 @@
     </row>
     <row r="390" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B390" s="2">
         <v>0</v>
@@ -6106,7 +6103,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B391" s="2">
         <v>1</v>
@@ -6114,7 +6111,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B392" s="2">
         <v>0</v>
@@ -6122,7 +6119,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B393" s="2">
         <v>0</v>
@@ -6130,7 +6127,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B394" s="2">
         <v>0</v>
@@ -6138,7 +6135,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B395" s="2">
         <v>0</v>
@@ -6146,7 +6143,7 @@
     </row>
     <row r="396" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B396" s="2">
         <v>1</v>
@@ -6154,7 +6151,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B397" s="2">
         <v>0</v>
@@ -6162,7 +6159,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B398" s="2">
         <v>0</v>
@@ -6170,7 +6167,7 @@
     </row>
     <row r="399" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B399" s="2">
         <v>1</v>
@@ -6178,7 +6175,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B400" s="2">
         <v>1</v>
@@ -6186,7 +6183,7 @@
     </row>
     <row r="401" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B401" s="2">
         <v>1</v>
@@ -6194,7 +6191,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B402" s="2">
         <v>0</v>
@@ -6202,7 +6199,7 @@
     </row>
     <row r="403" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B403" s="2">
         <v>0</v>
@@ -6210,7 +6207,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B404" s="2">
         <v>0</v>
@@ -6218,7 +6215,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B405" s="2">
         <v>0</v>
@@ -6226,7 +6223,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B406" s="2">
         <v>1</v>
@@ -6234,7 +6231,7 @@
     </row>
     <row r="407" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B407" s="2">
         <v>1</v>
@@ -6242,7 +6239,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B408" s="2">
         <v>0</v>
@@ -6250,7 +6247,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B409" s="2">
         <v>1</v>
@@ -6258,7 +6255,7 @@
     </row>
     <row r="410" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B410" s="2">
         <v>1</v>
@@ -6266,7 +6263,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B411" s="2">
         <v>0</v>
@@ -6274,7 +6271,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B412" s="2">
         <v>0</v>
@@ -6282,7 +6279,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B413" s="2">
         <v>0</v>
@@ -6290,7 +6287,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B414" s="2">
         <v>0</v>
@@ -6298,7 +6295,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B415" s="2">
         <v>0</v>
@@ -6306,7 +6303,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B416" s="2">
         <v>0</v>
@@ -6314,7 +6311,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B417" s="2">
         <v>0</v>
@@ -6322,7 +6319,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B418" s="2">
         <v>0</v>
@@ -6330,7 +6327,7 @@
     </row>
     <row r="419" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B419" s="2">
         <v>1</v>
@@ -6338,7 +6335,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B420" s="2">
         <v>0</v>
@@ -6346,7 +6343,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B421" s="2">
         <v>0</v>
@@ -6354,7 +6351,7 @@
     </row>
     <row r="422" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B422" s="2">
         <v>0</v>
@@ -6362,7 +6359,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B423" s="2">
         <v>0</v>
@@ -6370,7 +6367,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B424" s="2">
         <v>0</v>
@@ -6378,7 +6375,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B425" s="2">
         <v>0</v>
@@ -6386,7 +6383,7 @@
     </row>
     <row r="426" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B426" s="2">
         <v>1</v>
@@ -6394,7 +6391,7 @@
     </row>
     <row r="427" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B427" s="2">
         <v>0</v>
@@ -6402,7 +6399,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B428" s="2">
         <v>0</v>
@@ -6410,7 +6407,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B429" s="2">
         <v>0</v>
@@ -6418,7 +6415,7 @@
     </row>
     <row r="430" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B430" s="2">
         <v>1</v>
@@ -6426,7 +6423,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B431" s="2">
         <v>1</v>
@@ -6434,7 +6431,7 @@
     </row>
     <row r="432" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B432" s="2">
         <v>0</v>
@@ -6442,7 +6439,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B433" s="2">
         <v>0</v>
@@ -6450,7 +6447,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B434" s="2">
         <v>1</v>
@@ -6458,7 +6455,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B435" s="2">
         <v>1</v>
@@ -6466,7 +6463,7 @@
     </row>
     <row r="436" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B436" s="2">
         <v>1</v>
@@ -6474,7 +6471,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B437" s="2">
         <v>0</v>
@@ -6482,7 +6479,7 @@
     </row>
     <row r="438" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B438" s="2">
         <v>1</v>
@@ -6490,7 +6487,7 @@
     </row>
     <row r="439" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B439" s="2">
         <v>0</v>
@@ -6498,7 +6495,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B440" s="2">
         <v>0</v>
@@ -6506,7 +6503,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B441" s="2">
         <v>0</v>
@@ -6514,7 +6511,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B442" s="2">
         <v>0</v>
@@ -6522,7 +6519,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B443" s="2">
         <v>1</v>
@@ -6530,7 +6527,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B444" s="2">
         <v>0</v>
@@ -6538,7 +6535,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B445" s="2">
         <v>1</v>
@@ -6546,7 +6543,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B446" s="2">
         <v>1</v>
@@ -6554,7 +6551,7 @@
     </row>
     <row r="447" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B447" s="2">
         <v>0</v>
@@ -6562,7 +6559,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B448" s="2">
         <v>0</v>
@@ -6570,7 +6567,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B449" s="2">
         <v>0</v>
@@ -6578,7 +6575,7 @@
     </row>
     <row r="450" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B450" s="2">
         <v>1</v>
@@ -6586,7 +6583,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B451" s="2">
         <v>1</v>
@@ -6594,7 +6591,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B452" s="2">
         <v>0</v>
@@ -6602,7 +6599,7 @@
     </row>
     <row r="453" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B453" s="2">
         <v>0</v>
@@ -6610,7 +6607,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B454" s="2">
         <v>0</v>
@@ -6618,7 +6615,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B455" s="2">
         <v>0</v>
@@ -6626,7 +6623,7 @@
     </row>
     <row r="456" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B456" s="2">
         <v>0</v>
@@ -6634,7 +6631,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B457" s="2">
         <v>1</v>
@@ -6642,7 +6639,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B458" s="2">
         <v>1</v>
@@ -6650,7 +6647,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B459" s="2">
         <v>1</v>
@@ -6658,7 +6655,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B460" s="2">
         <v>1</v>
@@ -6666,7 +6663,7 @@
     </row>
     <row r="461" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B461" s="2">
         <v>1</v>
@@ -6674,7 +6671,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B462" s="2">
         <v>1</v>
@@ -6682,7 +6679,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B463" s="2">
         <v>1</v>
@@ -6690,7 +6687,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B464" s="2">
         <v>1</v>
@@ -6698,7 +6695,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B465" s="2">
         <v>0</v>
@@ -6706,7 +6703,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B466" s="2">
         <v>0</v>
@@ -6714,7 +6711,7 @@
     </row>
     <row r="467" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B467" s="2">
         <v>1</v>
@@ -6722,7 +6719,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B468" s="2">
         <v>0</v>
@@ -6730,7 +6727,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B469" s="2">
         <v>0</v>
@@ -6738,7 +6735,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B470" s="2">
         <v>0</v>
@@ -6746,7 +6743,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B471" s="2">
         <v>0</v>
@@ -6754,7 +6751,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B472" s="2">
         <v>1</v>
@@ -6762,7 +6759,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B473" s="2">
         <v>0</v>
@@ -6770,7 +6767,7 @@
     </row>
     <row r="474" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B474" s="2">
         <v>0</v>
@@ -6778,7 +6775,7 @@
     </row>
     <row r="475" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B475" s="2">
         <v>1</v>
@@ -6786,7 +6783,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B476" s="2">
         <v>0</v>
@@ -6794,7 +6791,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B477" s="2">
         <v>0</v>
@@ -6802,7 +6799,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B478" s="2">
         <v>0</v>
@@ -6810,7 +6807,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B479" s="2">
         <v>0</v>
@@ -6818,7 +6815,7 @@
     </row>
     <row r="480" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B480" s="2">
         <v>0</v>
@@ -6826,7 +6823,7 @@
     </row>
     <row r="481" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B481" s="2">
         <v>0</v>
@@ -6834,7 +6831,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B482" s="2">
         <v>0</v>
@@ -6842,7 +6839,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B483" s="2">
         <v>1</v>
@@ -6850,7 +6847,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B484" s="2">
         <v>0</v>
@@ -6858,7 +6855,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B485" s="2">
         <v>1</v>
@@ -6866,7 +6863,7 @@
     </row>
     <row r="486" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B486" s="2">
         <v>0</v>
@@ -6874,7 +6871,7 @@
     </row>
     <row r="487" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A487" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B487" s="2">
         <v>0</v>
@@ -6882,7 +6879,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B488" s="2">
         <v>0</v>
@@ -6890,7 +6887,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B489" s="2">
         <v>0</v>
@@ -6898,7 +6895,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B490" s="2">
         <v>0</v>
@@ -6906,7 +6903,7 @@
     </row>
     <row r="491" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B491" s="2">
         <v>0</v>
@@ -6914,7 +6911,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B492" s="2">
         <v>0</v>
@@ -6922,7 +6919,7 @@
     </row>
     <row r="493" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B493" s="2">
         <v>1</v>
@@ -6930,7 +6927,7 @@
     </row>
     <row r="494" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B494" s="2">
         <v>1</v>
@@ -6938,7 +6935,7 @@
     </row>
     <row r="495" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B495" s="2">
         <v>0</v>
@@ -6946,7 +6943,7 @@
     </row>
     <row r="496" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B496" s="2">
         <v>1</v>
@@ -6954,7 +6951,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B497" s="2">
         <v>0</v>
@@ -6962,7 +6959,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B498" s="2">
         <v>1</v>
@@ -6970,7 +6967,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B499" s="2">
         <v>0</v>
@@ -6978,7 +6975,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B500" s="2">
         <v>0</v>
@@ -6986,7 +6983,7 @@
     </row>
     <row r="501" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B501" s="2">
         <v>1</v>
@@ -6994,7 +6991,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B502" s="2">
         <v>1</v>
@@ -7002,7 +6999,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B503" s="2">
         <v>1</v>
@@ -7010,7 +7007,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B504" s="2">
         <v>0</v>
@@ -7018,7 +7015,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B505" s="2">
         <v>1</v>
@@ -7026,7 +7023,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B506" s="2">
         <v>0</v>
@@ -7034,7 +7031,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B507" s="2">
         <v>1</v>
@@ -7042,7 +7039,7 @@
     </row>
     <row r="508" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B508" s="2">
         <v>0</v>
@@ -7050,7 +7047,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B509" s="2">
         <v>0</v>
@@ -7058,7 +7055,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B510" s="2">
         <v>0</v>
@@ -7066,7 +7063,7 @@
     </row>
     <row r="511" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B511" s="2">
         <v>1</v>
@@ -7074,7 +7071,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B512" s="2">
         <v>0</v>
@@ -7082,7 +7079,7 @@
     </row>
     <row r="513" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B513" s="2">
         <v>1</v>
@@ -7090,7 +7087,7 @@
     </row>
     <row r="514" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B514" s="2">
         <v>0</v>
@@ -7098,7 +7095,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B515" s="2">
         <v>0</v>
@@ -7106,7 +7103,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B516" s="2">
         <v>1</v>
@@ -7114,7 +7111,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B517" s="2">
         <v>0</v>
@@ -7122,7 +7119,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B518" s="2">
         <v>0</v>
@@ -7130,7 +7127,7 @@
     </row>
     <row r="519" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B519" s="2">
         <v>1</v>
@@ -7138,7 +7135,7 @@
     </row>
     <row r="520" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B520" s="2">
         <v>0</v>
@@ -7146,7 +7143,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B521" s="2">
         <v>1</v>
@@ -7154,7 +7151,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B522" s="2">
         <v>0</v>
@@ -7162,7 +7159,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B523" s="2">
         <v>1</v>
@@ -7170,7 +7167,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B524" s="2">
         <v>0</v>
@@ -7178,7 +7175,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B525" s="2">
         <v>1</v>
@@ -7186,7 +7183,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B526" s="2">
         <v>1</v>
@@ -7194,7 +7191,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B527" s="2">
         <v>0</v>
@@ -7202,7 +7199,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B528" s="2">
         <v>0</v>
@@ -7210,7 +7207,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B529" s="2">
         <v>1</v>
@@ -7218,7 +7215,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B530" s="2">
         <v>0</v>
@@ -7226,7 +7223,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B531" s="2">
         <v>0</v>
@@ -7234,7 +7231,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B532" s="2">
         <v>1</v>
@@ -7242,7 +7239,7 @@
     </row>
     <row r="533" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B533" s="2">
         <v>1</v>
@@ -7250,7 +7247,7 @@
     </row>
     <row r="534" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B534" s="2">
         <v>1</v>
@@ -7258,7 +7255,7 @@
     </row>
     <row r="535" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B535" s="2">
         <v>1</v>
@@ -7274,7 +7271,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B537" s="2">
         <v>0</v>
@@ -7282,7 +7279,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B538" s="2">
         <v>0</v>
@@ -7290,7 +7287,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B539" s="2">
         <v>0</v>
@@ -7298,7 +7295,7 @@
     </row>
     <row r="540" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B540" s="2">
         <v>0</v>
@@ -7306,7 +7303,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B541" s="2">
         <v>0</v>
@@ -7314,7 +7311,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B542" s="2">
         <v>0</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B543" s="2">
         <v>0</v>
@@ -7330,7 +7327,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B544" s="2">
         <v>1</v>
@@ -7338,7 +7335,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B545" s="2">
         <v>0</v>
@@ -7346,7 +7343,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B546" s="2">
         <v>0</v>
@@ -7354,7 +7351,7 @@
     </row>
     <row r="547" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B547" s="2">
         <v>0</v>
@@ -7362,7 +7359,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B548" s="2">
         <v>0</v>
@@ -7370,7 +7367,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B549" s="2">
         <v>1</v>
@@ -7378,7 +7375,7 @@
     </row>
     <row r="550" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B550" s="2">
         <v>1</v>
@@ -7386,7 +7383,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B551" s="2">
         <v>0</v>
@@ -7405,8 +7402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView zoomScale="129" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F3"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8877,7 +8874,7 @@
     </row>
     <row r="183" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B183" s="2">
         <v>0</v>
@@ -8885,7 +8882,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B184" s="2">
         <v>0</v>
@@ -8893,7 +8890,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B185" s="2">
         <v>1</v>
@@ -8901,7 +8898,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B186" s="2">
         <v>0</v>
@@ -8909,7 +8906,7 @@
     </row>
     <row r="187" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B187" s="2">
         <v>0</v>
@@ -8917,7 +8914,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B188" s="2">
         <v>0</v>
@@ -8925,7 +8922,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B189" s="2">
         <v>1</v>
@@ -8933,7 +8930,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B190" s="2">
         <v>0</v>
@@ -8941,7 +8938,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B191" s="2">
         <v>1</v>
@@ -8949,7 +8946,7 @@
     </row>
     <row r="192" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B192" s="2">
         <v>0</v>
@@ -8957,7 +8954,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B193" s="2">
         <v>0</v>
@@ -8965,7 +8962,7 @@
     </row>
     <row r="194" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B194" s="2">
         <v>1</v>
@@ -8973,7 +8970,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B195" s="2">
         <v>1</v>
@@ -8981,7 +8978,7 @@
     </row>
     <row r="196" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B196" s="2">
         <v>0</v>
@@ -8989,7 +8986,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B197" s="2">
         <v>0</v>
@@ -8997,7 +8994,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B198" s="2">
         <v>1</v>
@@ -9005,7 +9002,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B199" s="2">
         <v>0</v>
@@ -9013,7 +9010,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B200" s="2">
         <v>1</v>
@@ -9021,7 +9018,7 @@
     </row>
     <row r="201" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B201" s="2">
         <v>1</v>
